--- a/biology/Botanique/Ail_rose/Ail_rose.xlsx
+++ b/biology/Botanique/Ail_rose/Ail_rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Allium roseum
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante assez petite, parfois en touffe, qui forme de nombreux bulbilles. Les fleurs rose clair sont en cloches ou en coupes, groupées en ombelle lâche. Le spathe persiste en plusieurs lobes.
 C'est une plante des prés secs, des rocailles, des lieux cultivés, surtout au sud de l'Europe. 
@@ -545,7 +559,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">organes reproducteurs :
 Type d'inflorescence : ombelle simple
